--- a/database/timekeepers_import.xlsx
+++ b/database/timekeepers_import.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="N18" authorId="0">
+    <comment ref="N18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN CƠ ĐIỆN </t>
   </si>
@@ -155,16 +155,19 @@
   </si>
   <si>
     <t>Tan</t>
+  </si>
+  <si>
+    <t>CT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,44 +482,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,11 +527,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="StartUp"/>
@@ -631,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,9 +674,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,6 +709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -872,14 +885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="18" customWidth="1"/>
@@ -927,63 +940,63 @@
     <col min="51" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22"/>
     </row>
-    <row r="2" spans="1:46" ht="15.75">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="D2" s="40" t="str">
+      <c r="B2" s="35"/>
+      <c r="D2" s="42" t="str">
         <f>[1]BGĐ!D2</f>
         <v>BẢNG CHẤM CÔNG THÁNG 07/2017</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-    </row>
-    <row r="3" spans="1:46" ht="15.75">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -1027,124 +1040,124 @@
       <c r="AQ3" s="20"/>
       <c r="AR3" s="20"/>
     </row>
-    <row r="4" spans="1:46" ht="12" customHeight="1">
+    <row r="4" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="32" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="39" t="s">
+      <c r="AJ5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="39" t="s">
+      <c r="AK5" s="33" t="s">
         <v>26</v>
       </c>
       <c r="AL5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-    </row>
-    <row r="6" spans="1:46" s="2" customFormat="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+    </row>
+    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -1238,9 +1251,9 @@
       <c r="AH6" s="3">
         <v>31</v>
       </c>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="4" t="s">
         <v>7</v>
@@ -1267,7 +1280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="7" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1281,23 +1294,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="6">
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="6">
         <v>8</v>
       </c>
-      <c r="H7" s="6">
-        <v>8</v>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="6">
         <v>8</v>
       </c>
-      <c r="J7" s="6">
-        <v>8</v>
-      </c>
-      <c r="K7" s="6">
-        <v>8</v>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="6">
@@ -1362,7 +1375,7 @@
       </c>
       <c r="AI7" s="8">
         <f>SUM(D7:AH7)/8+ COUNTIF(D8:AH8,"CT")</f>
-        <v>25.5</v>
+        <v>21.5</v>
       </c>
       <c r="AJ7" s="5">
         <f>AG8+Z8+S8+L8+E8</f>
@@ -1382,7 +1395,7 @@
       </c>
       <c r="AN7" s="5">
         <f>COUNTIF(D7:AH7,"Ro")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="5">
         <f>COUNTIF(D7:AH7,"R")</f>
@@ -1403,10 +1416,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="30" customFormat="1" ht="12.75">
+    <row r="8" spans="1:46" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11">
         <v>8</v>
@@ -1475,7 +1488,7 @@
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="9" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1611,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="10" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="26"/>
       <c r="C10" s="12"/>
@@ -1659,7 +1672,7 @@
       <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
     </row>
-    <row r="11" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="11" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1795,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="12" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="26"/>
       <c r="C12" s="12"/>
@@ -1843,7 +1856,7 @@
       <c r="AS12" s="12"/>
       <c r="AT12" s="12"/>
     </row>
-    <row r="13" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="13" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="24"/>
       <c r="C13" s="5"/>
@@ -1891,7 +1904,7 @@
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
     </row>
-    <row r="14" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="14" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="26"/>
       <c r="C14" s="12"/>
@@ -1939,7 +1952,7 @@
       <c r="AS14" s="12"/>
       <c r="AT14" s="12"/>
     </row>
-    <row r="15" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="15" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="24"/>
       <c r="C15" s="5"/>
@@ -1987,7 +2000,7 @@
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
     </row>
-    <row r="16" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="16" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="26"/>
       <c r="C16" s="12"/>
@@ -2035,7 +2048,7 @@
       <c r="AS16" s="12"/>
       <c r="AT16" s="12"/>
     </row>
-    <row r="17" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="17" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="24"/>
       <c r="C17" s="5"/>
@@ -2083,7 +2096,7 @@
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
     </row>
-    <row r="18" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="18" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="26"/>
       <c r="C18" s="12"/>
@@ -2131,7 +2144,7 @@
       <c r="AS18" s="12"/>
       <c r="AT18" s="12"/>
     </row>
-    <row r="19" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="19" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="24"/>
       <c r="C19" s="5"/>
@@ -2179,7 +2192,7 @@
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
     </row>
-    <row r="20" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="20" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="26"/>
       <c r="C20" s="12"/>
@@ -2227,7 +2240,7 @@
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
     </row>
-    <row r="21" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="21" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="24"/>
       <c r="C21" s="5"/>
@@ -2275,7 +2288,7 @@
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
     </row>
-    <row r="22" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="22" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="26"/>
       <c r="C22" s="12"/>
@@ -2323,7 +2336,7 @@
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
     </row>
-    <row r="23" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="23" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="24"/>
       <c r="C23" s="5"/>
@@ -2371,7 +2384,7 @@
       <c r="AS23" s="5"/>
       <c r="AT23" s="5"/>
     </row>
-    <row r="24" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="24" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="26"/>
       <c r="C24" s="12"/>
@@ -2419,7 +2432,7 @@
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
     </row>
-    <row r="25" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="25" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="24"/>
       <c r="C25" s="5"/>
@@ -2467,7 +2480,7 @@
       <c r="AS25" s="5"/>
       <c r="AT25" s="5"/>
     </row>
-    <row r="26" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="26" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="26"/>
       <c r="C26" s="12"/>
@@ -2515,7 +2528,7 @@
       <c r="AS26" s="12"/>
       <c r="AT26" s="12"/>
     </row>
-    <row r="27" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="27" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="24"/>
       <c r="C27" s="5"/>
@@ -2563,7 +2576,7 @@
       <c r="AS27" s="5"/>
       <c r="AT27" s="5"/>
     </row>
-    <row r="28" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="28" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="26"/>
       <c r="C28" s="12"/>
@@ -2611,7 +2624,7 @@
       <c r="AS28" s="12"/>
       <c r="AT28" s="12"/>
     </row>
-    <row r="29" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="29" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="24"/>
       <c r="C29" s="5"/>
@@ -2659,7 +2672,7 @@
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
     </row>
-    <row r="30" spans="1:46" s="25" customFormat="1" ht="12.75">
+    <row r="30" spans="1:46" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="26"/>
       <c r="C30" s="12"/>
@@ -2707,13 +2720,13 @@
       <c r="AS30" s="12"/>
       <c r="AT30" s="12"/>
     </row>
-    <row r="31" spans="1:46" s="27" customFormat="1" ht="12.75">
+    <row r="31" spans="1:46" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="AI31" s="17">
         <f>SUM(AI7:AI30)</f>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ31" s="17">
         <f>SUM(AJ7:AJ30)</f>
@@ -2728,12 +2741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:42">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AK33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:42">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:42">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
       <c r="H35" s="18" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2765,7 @@
       <c r="M35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="2:42">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.25">
       <c r="H36" s="18" t="s">
         <v>20</v>
       </c>
@@ -2767,24 +2780,24 @@
       <c r="AN36" s="19"/>
       <c r="AO36" s="19"/>
     </row>
-    <row r="37" spans="2:42">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
       <c r="H37" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="2"/>
       <c r="M37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="AJ37" s="31" t="s">
+      <c r="AJ37" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-    </row>
-    <row r="46" spans="2:42">
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+    </row>
+    <row r="46" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B46" s="18">
         <f>7300-630</f>
         <v>6670</v>
@@ -2792,11 +2805,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AM5:AT5"/>
-    <mergeCell ref="AJ37:AP37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2804,6 +2812,11 @@
     <mergeCell ref="D5:AH5"/>
     <mergeCell ref="D2:AR2"/>
     <mergeCell ref="D4:AT4"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AM5:AT5"/>
+    <mergeCell ref="AJ37:AP37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2812,24 +2825,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
